--- a/Excel_05_02.xlsx
+++ b/Excel_05_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sentimentAnalysis\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FD7A76-2E00-456A-A7D5-69F62ABC4B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F8458B-224F-4993-805C-31482E16B217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,333 +20,315 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="107">
+  <si>
+    <t>GlobeNewswire</t>
+  </si>
+  <si>
+    <t>Steve Wozniak, Co-Founder of Apple Computer, to Headline at CentralSquare 2020</t>
+  </si>
+  <si>
+    <t>NEUTRAL</t>
+  </si>
+  <si>
+    <t>Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Apple loses News chief - Bloomberg</t>
+  </si>
+  <si>
+    <t>The Stock Observer</t>
+  </si>
+  <si>
+    <t>SG Americas Securities LLC Buys 84,204 Shares of Apple Hospitality REIT Inc (NYSE:APLE)</t>
+  </si>
+  <si>
+    <t>Reuters</t>
+  </si>
+  <si>
+    <t>Exclusive: iPhone app makers questioned in U.S. antitrust probe of Apple - sources</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>4 Form - Statement of changes in beneficial ownership of securities - Apple Inc. (0000320193) (Issuer)</t>
+  </si>
+  <si>
+    <t>POSITIVE</t>
+  </si>
+  <si>
+    <t>BusinessWire</t>
+  </si>
+  <si>
+    <t>PRSA-NY Announces 2020 Big Apple Awards, Themed ‘Building Bridges to the Future’</t>
+  </si>
+  <si>
+    <t>Seeking Alpha Stock Ideas</t>
+  </si>
+  <si>
+    <t>Apple Is Still Undervalued And Corona Is Priced In</t>
+  </si>
+  <si>
+    <t>NEGATIVE</t>
+  </si>
+  <si>
+    <t>Apple Rush cancels an additional 500,000,000 shares reducing outstanding shares by an additional 8%</t>
+  </si>
+  <si>
+    <t>WT Wealth Management Sells 255 Shares of Apple Inc. (NASDAQ:AAPL)</t>
+  </si>
+  <si>
+    <t>DOJ contacting app developers about Apple - Reuters</t>
+  </si>
+  <si>
+    <t>PR Newswire</t>
+  </si>
+  <si>
+    <t>TikTok, Apple Search Ads, Facebook, Google: Top Ad Networks In Singular's 2020 ROI Index</t>
+  </si>
+  <si>
+    <t>New Friendable App Reaches Final Stage of Beta Testing on Both Apple iOS and Android Platforms</t>
+  </si>
+  <si>
+    <t>Apple Computer Pioneer David Sun Joins CEO Coaching International</t>
+  </si>
   <si>
     <t>Bloomberg</t>
   </si>
   <si>
-    <t>Jeff Bezos Sells $1.8 Billion of Amazon Stock in Two Days After Surge</t>
-  </si>
-  <si>
-    <t>NEUTRAL</t>
-  </si>
-  <si>
-    <t>BusinessWire</t>
-  </si>
-  <si>
-    <t>New Consumer Survey from Convey Reveals Mixed Feelings About Amazon – Even As Fast, Free Shipping Proves Irresistible</t>
-  </si>
-  <si>
-    <t>POSITIVE</t>
-  </si>
-  <si>
-    <t>PR Newswire</t>
-  </si>
-  <si>
-    <t>Leviton's New Decora Smart™ Voice Dimmer with Amazon Alexa Built-in Offers Smart Lighting and a Voice Assistant in a Single Device</t>
-  </si>
-  <si>
-    <t>TIBCO Enhances Retail Capabilities in the Cloud on Amazon Web Services</t>
-  </si>
-  <si>
-    <t>Seeking Alpha</t>
-  </si>
-  <si>
-    <t>Amazon target raised on long runway</t>
+    <t>Apple Suppliers Aim to Resume Full China Production Feb. 10</t>
+  </si>
+  <si>
+    <t>Apple TV App And Apple TV+ Now Available On 2019 LG TVs In U.S. And 80-Plus Other Countries</t>
+  </si>
+  <si>
+    <t>Holding on to Apple Despite Supply Chain Concerns: Crossmark Global</t>
+  </si>
+  <si>
+    <t>Asia Becoming Increasingly Important For Apple</t>
+  </si>
+  <si>
+    <t>13F-HR Form - Quarterly report filed by institutional managers, Holdings - Apple Tree Partners IV, L.P. (0001593440) (Filer)</t>
+  </si>
+  <si>
+    <t>CNBC</t>
+  </si>
+  <si>
+    <t>Analysis of how badly the coronavirus could hit Apple</t>
+  </si>
+  <si>
+    <t>Virginia Retirement Systems ET AL Has $319.79 Million Stake in Apple Inc. (NASDAQ:AAPL)</t>
+  </si>
+  <si>
+    <t>Apple Inc. (NASDAQ:AAPL) Stock Holdings Lowered by Rosenbaum Jay D.</t>
+  </si>
+  <si>
+    <t>Harborview Advisors LLC Sells 126 Shares of Apple Inc. (NASDAQ:AAPL)</t>
+  </si>
+  <si>
+    <t>Thinking about buying stock in Apple, Baidu, LYFT, Tilray, or Wayfair?</t>
+  </si>
+  <si>
+    <t>Apple analysts see limited coronavirus impact</t>
+  </si>
+  <si>
+    <t>Finalists for Golden Apple Awards for Excellence in Leadership Announced</t>
+  </si>
+  <si>
+    <t>Apple supplier Wistron to assemble key iPhone component in new India plant - sources</t>
+  </si>
+  <si>
+    <t>Apple (NASDAQ:AAPL) PT Raised to $315.00</t>
+  </si>
+  <si>
+    <t>Apple (NASDAQ:AAPL) Raised to “Neutral” at New Street Research</t>
+  </si>
+  <si>
+    <t>Bank of America Boosts Apple (NASDAQ:AAPL) Price Target to $350.00</t>
+  </si>
+  <si>
+    <t>Apple Inc. (NASDAQ:AAPL) is Oakwood Capital Management LLC CA’s Largest Position</t>
+  </si>
+  <si>
+    <t>Vice News vet could join Apple-affiliated producer - WSJ</t>
+  </si>
+  <si>
+    <t>Reik &amp; CO. LLC Buys 345 Shares of Apple Inc. (NASDAQ:AAPL)</t>
+  </si>
+  <si>
+    <t>Tufton Capital Management Decreases Stake in Apple Inc. (NASDAQ:AAPL)</t>
+  </si>
+  <si>
+    <t>Apple Hospitality REIT Inc to Issue Monthly Dividend of $0.10 (NYSE:APLE)</t>
+  </si>
+  <si>
+    <t>Monness Crespi &amp; Hardt Raises Apple (NASDAQ:AAPL) Price Target to $370.00</t>
+  </si>
+  <si>
+    <t>Apple (NASDAQ:AAPL) PT Raised to $360.00 at Raymond James</t>
+  </si>
+  <si>
+    <t>Apple (NASDAQ:AAPL) Stock Rating Lowered by Zacks Investment Research</t>
+  </si>
+  <si>
+    <t>Apple closing all China stores and offices</t>
+  </si>
+  <si>
+    <t>Apple to close all China mainland stores due to virus outbreak</t>
+  </si>
+  <si>
+    <t>Apple to shut down all official stores in Chinese mainland due to virus outbreak</t>
+  </si>
+  <si>
+    <t>Apple to Close Stores in China Through Feb. 9 on Virus Fears</t>
+  </si>
+  <si>
+    <t>Tesla: Tracking The Amazon/Apple Paradigms, And It's Still Early Days</t>
+  </si>
+  <si>
+    <t>Q1 2021 EPS Estimates for Apple Inc. (NASDAQ:AAPL) Lifted by Wedbush</t>
+  </si>
+  <si>
+    <t>Apple (NASDAQ:AAPL) PT Raised to $375.00</t>
+  </si>
+  <si>
+    <t>Apple (NASDAQ:AAPL) Given New $358.00 Price Target at Royal Bank of Canada</t>
+  </si>
+  <si>
+    <t>Apple (NASDAQ:AAPL) Announces Earnings Results</t>
+  </si>
+  <si>
+    <t>Westwood Management Corp IL Invests $206,000 in Apple Inc. (NASDAQ:AAPL)</t>
+  </si>
+  <si>
+    <t>Intl Fcstone Inc. Acquires 2,201 Shares of Apple Inc. (NASDAQ:AAPL)</t>
+  </si>
+  <si>
+    <t>Apple supplier Japan Display seals $920 mln bailout from Ichigo</t>
+  </si>
+  <si>
+    <t>Apple: Not Entirely Out Of The Woods</t>
+  </si>
+  <si>
+    <t>Apple (NASDAQ:AAPL) Upgraded to Hold by Maxim Group</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co. Boosts Apple (NASDAQ:AAPL) Price Target to $350.00</t>
+  </si>
+  <si>
+    <t>Apple supplier LG Display posts fourth quarterly loss in a row</t>
+  </si>
+  <si>
+    <t>Sumitomo Life Insurance Co. Has $39.96 Million Position in Apple Inc. (NASDAQ:AAPL)</t>
+  </si>
+  <si>
+    <t>Apple shooting for Samsung's crown</t>
+  </si>
+  <si>
+    <t>New Apple Maps launches in the U.S.</t>
+  </si>
+  <si>
+    <t>Apple redesigns mapping app for U.S. users</t>
+  </si>
+  <si>
+    <t>Apple Poised for New Milestone as S&amp;P 500’s Heavyweight Champion</t>
+  </si>
+  <si>
+    <t>Apple Takes Top Spot in Q4 2019 Worldwide Smartphone Market While Huawei Rises to Number 2 Globally for 2019, According to IDC</t>
+  </si>
+  <si>
+    <t>Acquiring Decawave, Qorvo Is Second Major Maker Of Location Chips With Technology Apple Is Mainstreaming</t>
+  </si>
+  <si>
+    <t>Apple topped Q4 smartphone shipments</t>
+  </si>
+  <si>
+    <t>INSERTING and REPLACING i2c and Najm Bring Apple Pay® to Najm Prepaid Reloadable Cardholders in the Middle East</t>
+  </si>
+  <si>
+    <t>EU lawmakers, with eye on Apple, call for common mobile charger</t>
+  </si>
+  <si>
+    <t>Apple Inc. (NASDAQ:AAPL) Shares Sold by Covenant Asset Management LLC</t>
   </si>
   <si>
     <t>Benzinga</t>
   </si>
   <si>
-    <t>Jeff Bezos Sells $1.8B Worth Of Amazon Stock</t>
-  </si>
-  <si>
-    <t>Bezos sells $1.8B worth of Amazon stock</t>
-  </si>
-  <si>
-    <t>Whole Foods Market and Amazon Bring Back Deal on Sustainably Sourced Roses for Valentine’s Day</t>
-  </si>
-  <si>
-    <t>NEGATIVE</t>
-  </si>
-  <si>
-    <t>Global Artificial Intelligence in Aviation Market 2018-2022| Evolving Opportunities with Airbus and Amazon | Technavio</t>
-  </si>
-  <si>
-    <t>Amazon Finally Closes Above $1 Trillion After Months of Flirting</t>
-  </si>
-  <si>
-    <t>NTT DATA Announces Strategic Collaboration Agreement with Amazon Web Services</t>
-  </si>
-  <si>
-    <t>ECS Named Amazon Web Services Premier Consulting Partner for Fifth Consecutive Year</t>
-  </si>
-  <si>
-    <t>Dalfen Industrial signs Long-term Lease with Amazon</t>
-  </si>
-  <si>
-    <t>GlobeNewswire</t>
-  </si>
-  <si>
-    <t>Incremental Growth in Cloud Spending Hits a New High while Amazon and Microsoft Maintain a Clear Lead</t>
-  </si>
-  <si>
-    <t>Amazon Invested $15 Billion and Launched 225 New Tools and Services in 2019 to Help Worldwide Third-Party Sellers – Mostly Small and Medium-Sized Businesses – Grow and Thrive</t>
+    <t>Santa Was Generous To Apple This Past Year</t>
+  </si>
+  <si>
+    <t>Apple Inc. (NASDAQ:AAPL) Shares Sold by Mercer Capital Advisers Inc.</t>
+  </si>
+  <si>
+    <t>Counterpoint Research: Global Smartphone Market - Apple gained the top spot in Q4 2019 while Huawei surpassed Apple to become the second-largest brand in CY 2019</t>
+  </si>
+  <si>
+    <t>CalTech wins $1.1B patent case against Apple, Broadcom</t>
+  </si>
+  <si>
+    <t>Factbox: Tesla, Apple, Starbucks warn of virus hit; firms restrict travel, flights cancelled</t>
+  </si>
+  <si>
+    <t>CalTech Gets $1.1B From Apple, Broadcom For Patent Infringement, Companies To Appeal</t>
+  </si>
+  <si>
+    <t>Apple and Samsung Are Tied for World’s No.1 Smartphone Seller</t>
   </si>
   <si>
     <t>Zacks Equity Research</t>
   </si>
   <si>
-    <t>Goldman (GS) Mulls to Offer Loans in Partnership With Amazon</t>
-  </si>
-  <si>
-    <t>Amazon Testing Online Platform To Let Merchants Shop For Loans: Report</t>
-  </si>
-  <si>
-    <t>Today's Pickup: Amazon Taking More Logistics Work In-House; Steer Clear Of The ATL</t>
-  </si>
-  <si>
-    <t>Failure Case Study on Amazon China, 2019 - Chinese Consumers, Already Accustomed to Free &amp; Rapid Deliveries from Local Players, Failed to see Value in Amazon's Offerings - ResearchAndMarkets.com</t>
-  </si>
-  <si>
-    <t>Goldman Eyes Offering Small-Business Loans in Deal With Amazon</t>
-  </si>
-  <si>
-    <t>Goldman, Amazon in talks to offer small business loans - FT</t>
-  </si>
-  <si>
-    <t>Reuters</t>
-  </si>
-  <si>
-    <t>Goldman in talks with Amazon to offer small business loans: FT</t>
-  </si>
-  <si>
-    <t>Goldman Sachs in talks with Amazon to offer small business loans: FT</t>
-  </si>
-  <si>
-    <t>Crest View International Reports on Amazon as Stock Surges on Increased Prime Subscribers</t>
-  </si>
-  <si>
-    <t>Seeking Alpha Stock Ideas</t>
-  </si>
-  <si>
-    <t>Amazon: More Room To Run Based On Accelerated Growth</t>
-  </si>
-  <si>
-    <t>Amazon wins at the 2020 Kellogg School Super Bowl Advertising Review</t>
-  </si>
-  <si>
-    <t>CNBC</t>
-  </si>
-  <si>
-    <t>More retailers file for bankruptcy twice as they struggle with rising debt, pressure from Amazon</t>
-  </si>
-  <si>
-    <t>Bulls raise Amazon targets on grocery strength</t>
-  </si>
-  <si>
-    <t>Amazon holiday quarter delivers, threatens profit squeeze for UPS and FedEx</t>
-  </si>
-  <si>
-    <t>Tesla: Tracking The Amazon/Apple Paradigms, And It's Still Early Days</t>
-  </si>
-  <si>
-    <t>Amazon: One Of The Best Long-Term Investment In The Tech Sector</t>
-  </si>
-  <si>
-    <t>Amazon Delivers In A Big Way And Analysts Say There's Even More Upside</t>
-  </si>
-  <si>
-    <t>Wall Street falls on virus concerns, Amazon limits losses</t>
-  </si>
-  <si>
-    <t>Amazon roars back into $1 trillion club, powered by one-day delivery boost</t>
-  </si>
-  <si>
-    <t>Stocks start mostly lower but Amazon a big early gainer</t>
-  </si>
-  <si>
-    <t>S&amp;P 500 opens lower on virus concerns, Amazon supports Nasdaq</t>
-  </si>
-  <si>
-    <t>US STOCKS SNAPSHOT-S&amp;P 500 opens lower on virus concerns, Amazon supports Nasdaq</t>
-  </si>
-  <si>
-    <t>Amazon Blows Away Fourth-Quarter Earnings Estimates; Stock Soars After Hours</t>
-  </si>
-  <si>
-    <t>Does UPS Have Too Much Amazon Business?</t>
-  </si>
-  <si>
-    <t>Amazon has $3,200 bull case after earnings - RBC</t>
-  </si>
-  <si>
-    <t>Amazon Set to Break Record for One-Day Gain in Market Cap</t>
-  </si>
-  <si>
-    <t>Big Data as a Service Market Procurement Intelligence Report | Evolving Opportunities with Amazon and Oracle in the Big Data as a Service Market | SpendEdge</t>
-  </si>
-  <si>
-    <t>Amazon Value Set to Top $1 Trillion, and Wall Street Says More to Come</t>
-  </si>
-  <si>
-    <t>Global Virtual Private Cloud (VPC) Market Outlook 2019-2025 - Key Player Analysis on IBM, Microsoft, Amazon Web Services, Alibaba Cloud International, and VMware - ResearchAndMarkets.com</t>
-  </si>
-  <si>
-    <t>Amazon (AMZN) Q4 Earnings Crush Estimates, Revenues Up Y/Y</t>
-  </si>
-  <si>
-    <t>Amazon Is 'Well-Positioned' for the Long Term, Analyst Says</t>
-  </si>
-  <si>
-    <t>Amazon Earnings Show 'Remarkable Execution,' CFRA Analyst Amobi Says</t>
-  </si>
-  <si>
-    <t>Amazon holiday sales jump as one-day shipping pays dividends, stock up 13%</t>
-  </si>
-  <si>
-    <t>SEC</t>
-  </si>
-  <si>
-    <t>8-K Form - Current report, items 2.02 and 9.01 - AMAZON COM INC (0001018724) (Filer)</t>
-  </si>
-  <si>
-    <t>Amazon Shares Hit $2,000 After Crushing Q4 Earnings, Sales</t>
-  </si>
-  <si>
-    <t>Amazon +9.8% after Q4 smashes expectations</t>
-  </si>
-  <si>
-    <t>Amazon Holiday Results Crush Wall Street Estimates; Shares Surge</t>
-  </si>
-  <si>
-    <t>Amazon beats holiday-quarter sales estimates, shares up 10%</t>
-  </si>
-  <si>
-    <t>Amazon EPS beats by $2.51, beats on revenue</t>
-  </si>
-  <si>
-    <t>Amazon: Accelerating Decline In Shipping Costs Are Driving Future Valuation</t>
-  </si>
-  <si>
-    <t>Fuller To Forwarders: Adapt To Amazon Or Perish</t>
-  </si>
-  <si>
-    <t>Amazon Q4 Earnings Outlook</t>
-  </si>
-  <si>
-    <t>Amazon Earnings on Deck: Will It Top or Flop?</t>
-  </si>
-  <si>
-    <t>Amazon Beats Big on Q4 Bottom Line; Plus V, AMGN</t>
-  </si>
-  <si>
-    <t>Amazon To Offer Hot Food, Espresso, Fountain Soda In California Convenience Store</t>
-  </si>
-  <si>
-    <t>Amazon Q4 2019 Earnings Preview</t>
-  </si>
-  <si>
-    <t>UPS doubling down on weekend deliveries as e-commerce booms and Amazon looms</t>
-  </si>
-  <si>
-    <t>Trinity Audio Joins Amazon Web Services Partner Network</t>
-  </si>
-  <si>
-    <t>Amazon, Deliveroo argue against UK antitrust probe</t>
-  </si>
-  <si>
-    <t>The Three "Cs" Of Amazon Earnings: Consumers, Cloud, And Competitors</t>
-  </si>
-  <si>
-    <t>Black Friday in the UK, 2019 - Amazon, ASOS, Debenhams, Disney Store, Homebase, JD Sports, New Look &amp; Primark - ResearchAndMarkets.com</t>
-  </si>
-  <si>
-    <t>EBay forecast disappoints amid competition from Amazon, Walmart</t>
-  </si>
-  <si>
-    <t>Global Smart Speaker Market Report 2020-2024: Leading Players are Amazon, Apple, Alphabet, Baidu, Alibaba and Xiaomi</t>
-  </si>
-  <si>
-    <t>Merkle Releases Q4 2019 Digital Marketing Report, Showcasing Impressive Growth for Amazon and Varying Trends for Google During Holiday Season</t>
-  </si>
-  <si>
-    <t>DuPont, Delta Air Lines, Coca-Cola and Amazon Named Employee Retention Leaders in First AI-Based Workforce Rankings of Fortune 100</t>
-  </si>
-  <si>
-    <t>Candid Successfully Migrates REPAY Payment Gateway to Amazon Web Services with Zero Downtime</t>
-  </si>
-  <si>
-    <t>Iridium CloudConnect Goes Live, Extending IoT on Amazon Web Services Globally</t>
-  </si>
-  <si>
-    <t>SIOS Unveils Industry-First Solution for Automatic Remediation of Application Failures on Amazon EC2 Instances</t>
-  </si>
-  <si>
-    <t>Mohawk Group Launches App Featuring Its Proprietary AIMEE Software Platform on Amazon Marketplace Appstore</t>
-  </si>
-  <si>
-    <t>2019 Case Study: Amazon China - Chinese Consumers Already Accustomed to Free &amp; Rapid Deliveries from Local Players</t>
-  </si>
-  <si>
-    <t>Molekule launches on Amazon, Broadening Consumer Reach and Access to its Clean Air Technology</t>
-  </si>
-  <si>
-    <t>MacKenzie Bezos reduces Amazon stake by $400M</t>
-  </si>
-  <si>
-    <t>Mackenzie Bezos Gets Rid  Of About $370M Of Her Amazon Shares</t>
-  </si>
-  <si>
-    <t>Amazon China Case Study, 2019 - Featuring Alibaba, JD.com, Walmart, and More</t>
-  </si>
-  <si>
-    <t>Amazon, Deliveroo refute CMA inquiry</t>
-  </si>
-  <si>
-    <t>TENNESSEE GOVERNOR BILL LEE ANNOUNCES AMAZON TO CONTINUE INVESTMENTS IN TENNESSEE AND CREATE 1,000 NEW FULL-TIME JOBS IN MEMPHIS</t>
-  </si>
-  <si>
-    <t>WTT?!? Weekend: The Celadon Hits Keep On Coming, Walmart Appeals California Decision, Amazon Accused Of More Abuse</t>
-  </si>
-  <si>
-    <t>MacKenzie Bezos Shrinks Her Amazon Stake by About $400 Million</t>
-  </si>
-  <si>
-    <t>Benchmark raises Amazon on one-day shipping</t>
-  </si>
-  <si>
-    <t>Amazon Employees Publicly Condemn Company's Communications, Climate Policies</t>
-  </si>
-  <si>
-    <t>SC 13G/A Form - [Amend] Statement of acquisition of beneficial ownership by individuals - AMAZON COM INC (0001018724) (Filed by)</t>
-  </si>
-  <si>
-    <t>SC 13G/A Form - [Amend] Statement of acquisition of beneficial ownership by individuals - AMAZON COM INC (0001018724) (Subject)</t>
-  </si>
-  <si>
-    <t>TRYP by Wyndham Opens First Hotel in the Amazon</t>
-  </si>
-  <si>
-    <t>Driver Abuse Complaints Continue To Follow Amazon</t>
-  </si>
-  <si>
-    <t>Atkins Launches Atkins Party Planner Skill for Amazon Alexa to Help People Curate Crave-worthy Low Carb Party Menus</t>
-  </si>
-  <si>
-    <t>Amazon Donates $2 Million to Seattle-Based Nonprofits to Expand Access to STEM and Computer Science Education for Hundreds of Thousands of Students from Underserved and Underrepresented Communities Across Washington State</t>
-  </si>
-  <si>
-    <t>ERICH JAEGER USA Launches Road Tough™ Aftermarket Products on Amazon</t>
-  </si>
-  <si>
-    <t>Rosenbaum Famularo, P.C. releases their New Book for Amazon Sellers: "Amazon Sellers' Guide: Suspensions and Reinstatements"</t>
-  </si>
-  <si>
-    <t>Amazon Prime Video Expands Local Original Content to Argentina, Chile and Colombia with Four New Amazon Original Series Iosi, El Espía Arrepentido, La Jauría, Colonia Dignidad and Noticia de un Secuestro</t>
-  </si>
-  <si>
-    <t>E-Commerce Market in Saudi Arabia, Forecast to 2026 - Analysis on Amazon (Souq), eBay, Namshi, Noon, and Jarir Marketing (Bookstore) Company</t>
+    <t>Tech Daily: Apple, Facebook, Microsoft, AMD Earnings</t>
+  </si>
+  <si>
+    <t>i2c and Najm Bring Apple Pay® to Najm Prepaid Reloadable Cardholders in the Middle East</t>
+  </si>
+  <si>
+    <t>Strategy Analytics: Apple Becomes World's No.1 Smartphone Vendor in Q4 2019</t>
+  </si>
+  <si>
+    <t>CalTech wins $1.1 billion jury verdict in patent case against Apple, Broadcom</t>
+  </si>
+  <si>
+    <t>Caltech wins $1.1 bln jury verdict in patent case against Apple, Broadcom-source</t>
+  </si>
+  <si>
+    <t>Apple and Broadcom Ordered to Pay $1.1 Billion for Patent Infringement</t>
+  </si>
+  <si>
+    <t>Three Must-See Charts About Apple, AMD and Chip Stocks</t>
+  </si>
+  <si>
+    <t>Apple Closes More Stores in China as Coronavirus Spreads</t>
+  </si>
+  <si>
+    <t>US STOCKS-Apple, Boeing lift Wall Street as Fed stands pat</t>
+  </si>
+  <si>
+    <t>Apple hires Netflix engineer for streaming push - WSJ</t>
+  </si>
+  <si>
+    <t>Factbox: Apple, Starbucks warn of hit from virus; firms restrict travel, airlines cancel flights</t>
+  </si>
+  <si>
+    <t>Apple, Boeing lift Wall Street ahead of Fed decision</t>
+  </si>
+  <si>
+    <t>Signet Financial Management LLC Trims Stock Position in Apple Inc. (NASDAQ:AAPL)</t>
+  </si>
+  <si>
+    <t>Wall St. edges higher on Apple, Boeing strength; Fed in focus</t>
+  </si>
+  <si>
+    <t>US STOCKS-Wall St edges higher on Apple, Boeing strength; Fed in focus</t>
+  </si>
+  <si>
+    <t>Cramer Regrets Not Having More Faith In Apple</t>
+  </si>
+  <si>
+    <t>Apple (NASDAQ:AAPL) Given New $385.00 Price Target at DA Davidson</t>
   </si>
   <si>
     <t>SCOURCE OF HEADLINES</t>
@@ -733,32 +715,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="83.296875" customWidth="1"/>
-    <col min="3" max="3" width="36.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="84.5" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -783,38 +765,38 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.89999997615814209</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4">
-        <v>0.89999997615814209</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.89999997615814209</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -825,24 +807,24 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.10000000149011612</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -850,91 +832,91 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0.69999998807907104</v>
+        <v>0.5</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>-0.40000000596046448</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>-0.40000000596046448</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>0.30000001192092896</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -945,52 +927,52 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>-0.5</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1001,27 +983,27 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="D19" t="s">
         <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19">
-        <v>-0.30000001192092896</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>-0.10000000149011612</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -1029,38 +1011,38 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>0.80000001192092896</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1071,41 +1053,41 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
       <c r="C24">
-        <v>0</v>
+        <v>-0.30000001192092896</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>0.30000001192092896</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>0.10000000149011612</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
@@ -1113,10 +1095,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1127,52 +1109,52 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29">
-        <v>0.60000002384185791</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C30">
-        <v>-0.60000002384185791</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1183,69 +1165,69 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32">
-        <v>0.89999997615814209</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C33">
-        <v>0.69999998807907104</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C36">
-        <v>0.20000000298023224</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -1253,13 +1235,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37">
-        <v>-0.10000000149011612</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
@@ -1267,10 +1249,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>-0.20000000298023224</v>
@@ -1281,27 +1263,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39">
-        <v>-0.40000000596046448</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40">
-        <v>-0.10000000149011612</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
@@ -1309,13 +1291,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41">
-        <v>-0.10000000149011612</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
@@ -1323,16 +1305,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42">
-        <v>0.80000001192092896</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,38 +1322,38 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C43">
-        <v>0.60000002384185791</v>
+        <v>-0.10000000149011612</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C44">
-        <v>0.40000000596046448</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C45">
-        <v>0.10000000149011612</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1382,24 +1364,24 @@
         <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C46">
-        <v>0.10000000149011612</v>
+        <v>-0.69999998807907104</v>
       </c>
       <c r="D46" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47">
-        <v>-0.10000000149011612</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
@@ -1407,27 +1389,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48">
-        <v>0.80000001192092896</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C49">
-        <v>0.20000000298023224</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
@@ -1435,38 +1417,38 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C50">
-        <v>0.30000001192092896</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C51">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1477,13 +1459,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C53">
-        <v>0.10000000149011612</v>
+        <v>0</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
@@ -1491,10 +1473,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1505,38 +1487,38 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>-0.60000002384185791</v>
       </c>
       <c r="D55" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C56">
-        <v>-0.60000002384185791</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C57">
         <v>0.10000000149011612</v>
@@ -1547,13 +1529,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="D58" t="s">
         <v>2</v>
@@ -1561,52 +1543,52 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C59">
-        <v>-0.89999997615814209</v>
+        <v>-0.20000000298023224</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C60">
-        <v>0.60000002384185791</v>
+        <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C61">
-        <v>0.40000000596046448</v>
+        <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1617,10 +1599,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C63">
         <v>0.10000000149011612</v>
@@ -1631,41 +1613,41 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C64">
-        <v>-0.10000000149011612</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="D64" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="D65" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="D66" t="s">
         <v>2</v>
@@ -1676,38 +1658,38 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="D67" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C68">
         <v>-0.40000000596046448</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C69">
-        <v>-0.10000000149011612</v>
+        <v>0</v>
       </c>
       <c r="D69" t="s">
         <v>2</v>
@@ -1715,58 +1697,58 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C70">
-        <v>0.80000001192092896</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C71">
-        <v>-0.10000000149011612</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="D71" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C72">
-        <v>-0.80000001192092896</v>
+        <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C73">
-        <v>-0.10000000149011612</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="D73" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1774,63 +1756,63 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C74">
-        <v>0.69999998807907104</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C75">
-        <v>0.20000000298023224</v>
+        <v>-0.89999997615814209</v>
       </c>
       <c r="D75" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C76">
-        <v>0.69999998807907104</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C77">
-        <v>0.20000000298023224</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="D77" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1841,38 +1823,38 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C79">
-        <v>0.40000000596046448</v>
+        <v>-0.40000000596046448</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C80">
-        <v>0.30000001192092896</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1883,10 +1865,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1897,10 +1879,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C83">
         <v>-0.20000000298023224</v>
@@ -1911,97 +1893,97 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C84">
-        <v>-0.80000001192092896</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C85">
-        <v>0.10000000149011612</v>
+        <v>-0.69999998807907104</v>
       </c>
       <c r="D85" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C86">
-        <v>-0.10000000149011612</v>
+        <v>-0.40000000596046448</v>
       </c>
       <c r="D86" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C87">
-        <v>0.80000001192092896</v>
+        <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C88">
-        <v>0.80000001192092896</v>
+        <v>-0.40000000596046448</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C89">
-        <v>0.80000001192092896</v>
+        <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
@@ -2009,41 +1991,41 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C91">
-        <v>-0.5</v>
+        <v>-0.69999998807907104</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C92">
-        <v>0.69999998807907104</v>
+        <v>-0.5</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C93">
-        <v>0.10000000149011612</v>
+        <v>0</v>
       </c>
       <c r="D93" t="s">
         <v>2</v>
@@ -2051,57 +2033,15 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C94">
-        <v>-0.30000001192092896</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>106</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" t="s">
-        <v>107</v>
-      </c>
-      <c r="C96">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="D96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="D97" t="s">
         <v>2</v>
       </c>
     </row>
